--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393101.084915031</v>
+        <v>1468630.754579837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>109.4643709805615</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>257.0719521914901</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.31785343913981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>23.15951398733579</v>
+        <v>44.45311753961052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>205.3644314241348</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="C8" t="n">
-        <v>15.44382317818149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>110.3363129668687</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>48.10637266807382</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>152.4356384599935</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>207.8935139132029</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>206.806426921486</v>
+        <v>87.65220976162087</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>101.9166902817493</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>29.6232424922411</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.8385935972313</v>
+        <v>122.65197883716</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.7490173809992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>43.03801681746327</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
-        <v>146.1854691670926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>66.53347333264928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>195.5815380891459</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>60.54139430664144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.62632676293185</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4183,13 +4185,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>111.1052230220428</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>575.4989583075089</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>575.4989583075089</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>575.4989583075089</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>164.5130535179014</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.480863147839</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.480863147839</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.480863147839</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="E5" t="n">
-        <v>1233.480863147839</v>
+        <v>1254.989553604682</v>
       </c>
       <c r="F5" t="n">
-        <v>822.4949583582311</v>
+        <v>844.0036488150743</v>
       </c>
       <c r="G5" t="n">
-        <v>404.531150256418</v>
+        <v>426.0398407132611</v>
       </c>
       <c r="H5" t="n">
-        <v>77.3364302924208</v>
+        <v>98.84512074926397</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4606,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.972039273389</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.1113712492</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.1113712492</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005472</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="W10" t="n">
-        <v>424.8522003762303</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="14">
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>810.2549326310403</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>555.5704444251535</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,16 +5737,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1075.21084526296</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3600.612452458608</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.21084526296</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.21084526296</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="Y22" t="n">
-        <v>1075.21084526296</v>
+        <v>3782.260917288848</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4230.423978142505</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C25" t="n">
-        <v>4061.487795214598</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D25" t="n">
-        <v>3911.371155802262</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E25" t="n">
-        <v>3763.458062219869</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F25" t="n">
-        <v>3616.568114721959</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014291</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014291</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014291</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014291</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4632.865022116274</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>4412.072442972744</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6418,16 +6420,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.439203208485</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>140.6898357203497</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>140.6898357203497</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6652,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>3889.283315426964</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>3889.283315426964</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>3889.283315426964</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3889.283315426964</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,10 +6958,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="T37" t="n">
-        <v>4503.13917884751</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="U37" t="n">
-        <v>4503.13917884751</v>
+        <v>1142.582103152623</v>
       </c>
       <c r="V37" t="n">
-        <v>4503.13917884751</v>
+        <v>887.897614946736</v>
       </c>
       <c r="W37" t="n">
-        <v>4503.13917884751</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="X37" t="n">
-        <v>4503.13917884751</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y37" t="n">
-        <v>4503.13917884751</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,28 +7195,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1301.359161376947</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1301.359161376947</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1301.359161376947</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1696912903951</v>
+        <v>1011.941991339986</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1696912903951</v>
+        <v>783.952440441969</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7427,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028583</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
@@ -7664,31 +7666,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,7 +7745,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.693659033217</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.5650202467749</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.5650202467749</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.5650202467749</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.055751909234</v>
+        <v>558.5754693487576</v>
       </c>
       <c r="Y46" t="n">
-        <v>1164.055751909234</v>
+        <v>558.5754693487576</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>444.4889386861651</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>66.14901489210129</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>17.81614147583423</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.74113413690327</v>
+        <v>133.8953512967684</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>65.33013081687855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.290585875295</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>10.65497486614629</v>
+        <v>43.84158962621761</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.08296280093811</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24658,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>105.8758115500729</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
-        <v>105.9521741567354</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.43087907114352</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>175.2944832206708</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>25.9660229692434</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.2056534190054</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>110.4423380363465</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.418698365</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="G2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26457,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925152</v>
+        <v>-366360.8073925155</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220292</v>
+        <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.071822029</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141183</v>
+        <v>-189638.5513141186</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.4851627779</v>
       </c>
       <c r="G6" t="n">
         <v>335521.4851627778</v>
       </c>
       <c r="H6" t="n">
+        <v>335521.4851627782</v>
+      </c>
+      <c r="I6" t="n">
         <v>335521.4851627779</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>159098.265970185</v>
+      </c>
+      <c r="K6" t="n">
+        <v>335521.485162778</v>
+      </c>
+      <c r="L6" t="n">
+        <v>335521.4851627779</v>
+      </c>
+      <c r="M6" t="n">
+        <v>200720.4699289408</v>
+      </c>
+      <c r="N6" t="n">
         <v>335521.4851627778</v>
       </c>
-      <c r="J6" t="n">
-        <v>159098.2659701848</v>
-      </c>
-      <c r="K6" t="n">
-        <v>335521.4851627778</v>
-      </c>
-      <c r="L6" t="n">
-        <v>335521.4851627778</v>
-      </c>
-      <c r="M6" t="n">
-        <v>200720.4699289406</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>335521.4851627779</v>
       </c>
-      <c r="O6" t="n">
-        <v>335521.4851627777</v>
-      </c>
       <c r="P6" t="n">
-        <v>335521.4851627779</v>
+        <v>335521.4851627781</v>
       </c>
     </row>
   </sheetData>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>304.3197990402334</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>129.1659864645635</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>7.012336859472725</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.2051448974512</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.7718022575255</v>
+        <v>107.4781987052507</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>46.77321189969317</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680901</v>
       </c>
       <c r="C8" t="n">
-        <v>349.829068592826</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>101.8092259831502</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.4166256685172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,31 +31928,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>754.9133157366315</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36218,7 +36220,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468630.754579837</v>
+        <v>1461613.739688126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.94182778688864</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>257.0719521914901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>117.1365314849864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>407.8642255332556</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>44.45311753961052</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>205.3644314241348</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>200.2931783177765</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.3363129668687</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.88877949313004</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>15.98360398438602</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.4356384599935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23.39375411340972</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>207.8935139132029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>87.65220976162087</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>97.25485015768761</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="H22" t="n">
-        <v>29.6232424922411</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.65197883716</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>31.27200878560247</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>43.03801681746327</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.53347333264928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>195.5815380891459</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>85.85123176253057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.1052230220428</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>120.5508886758075</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>557.6485750391623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.777806202926</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.777806202926</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="D5" t="n">
-        <v>1640.777806202926</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="E5" t="n">
-        <v>1254.989553604682</v>
+        <v>1357.573648774087</v>
       </c>
       <c r="F5" t="n">
-        <v>844.0036488150743</v>
+        <v>946.5877439844796</v>
       </c>
       <c r="G5" t="n">
-        <v>426.0398407132611</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>98.84512074926397</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>491.2732454397182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>587.2612438814011</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>587.2612438814011</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>587.2612438814011</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>587.2612438814011</v>
+        <v>617.006227188208</v>
       </c>
       <c r="W10" t="n">
-        <v>587.2612438814011</v>
+        <v>327.5890571512474</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>485.404702608942</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365137</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>260.2520934878791</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>260.2520934878791</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345004</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345004</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3950693506686</v>
+        <v>441.9005583181187</v>
       </c>
     </row>
     <row r="14">
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211724</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4612303381598</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>268.7602397026888</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655742</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>745.1096951683995</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.1096951683995</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636254</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262065</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1099.383571417482</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310403</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251535</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>492.4609007520346</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,13 +5755,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3600.612452458608</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C22" t="n">
-        <v>3600.612452458608</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D22" t="n">
-        <v>3600.612452458608</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E22" t="n">
-        <v>3600.612452458608</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="F22" t="n">
-        <v>3600.612452458608</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="G22" t="n">
-        <v>3600.612452458608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>3782.260917288848</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>3782.260917288848</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>3782.260917288848</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="23">
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.1079791745888</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,49 +6211,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>241.9570010410683</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6478,16 +6478,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.6964226305959</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C31" t="n">
-        <v>437.6964226305959</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D31" t="n">
-        <v>287.5797832182601</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E31" t="n">
-        <v>287.5797832182601</v>
+        <v>296.98030080269</v>
       </c>
       <c r="F31" t="n">
-        <v>140.6898357203497</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>140.6898357203497</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.6964226305959</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,25 +6928,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.6878657662453</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1142.582103152623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>887.897614946736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>598.4804449097754</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>598.4804449097754</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>377.6878657662453</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7159,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1301.359161376947</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1301.359161376947</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1301.359161376947</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1011.941991339986</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>783.952440441969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7405,52 +7405,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D43" t="n">
-        <v>777.4224042438901</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E43" t="n">
-        <v>629.509310661497</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,34 +7648,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.9270045185178</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.693659033217</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.5650202467749</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>786.5650202467749</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>786.5650202467749</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>558.5754693487576</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.5754693487576</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.53204524670107</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.717654749846</v>
       </c>
       <c r="M15" t="n">
-        <v>444.4889386861651</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714842</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.717654749846</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>132.6318690338263</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.14901489210129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>125.2217189048026</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>17.81614147583423</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.8953512967684</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>121.3298031944072</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>2.126008749765674</v>
       </c>
       <c r="H22" t="n">
-        <v>119.290585875295</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.84158962621761</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>5.621317882561556</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>114.1490392373288</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>105.8758115500729</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>48.0036839568655</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.43087907114352</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>25.9660229692434</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>60.5827308840386</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841025</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>110.4423380363465</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687072</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141186</v>
+        <v>-190613.1425738395</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030561</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627782</v>
+        <v>334546.893903056</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.265970185</v>
+        <v>158123.6747104633</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.485162778</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="M6" t="n">
-        <v>200720.4699289408</v>
+        <v>199745.8786692193</v>
       </c>
       <c r="N6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627781</v>
+        <v>334546.8939030563</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.1659864645635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>7.012336859472725</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>169.1453427569913</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5.919944487539397</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.4781987052507</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>46.77321189969317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.8388043680901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>206.5828674239349</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>101.8092259831502</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.248863830698</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,31 +31928,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>224.1074838346402</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058702</v>
       </c>
       <c r="M15" t="n">
-        <v>754.9133157366315</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>425.9753597058702</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586603</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461613.739688126</v>
+        <v>1466553.002537158</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.94182778688864</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>117.1365314849864</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>407.8642255332556</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>122.5935461816077</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.45797858609807</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>200.2931783177765</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>314.6536463267113</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.46079155833912</v>
       </c>
       <c r="V10" t="n">
-        <v>80.88877949313004</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
         <v>81.7791350527408</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.98360398438602</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.7412772566563</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>23.39375411340972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.0546805228899</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.762897868668675</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.25485015768761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>164.3675597136119</v>
+        <v>77.32479443434002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>31.27200878560247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>10.0369744367782</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.4898845065121</v>
+        <v>30.43484953081551</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>82.78559640792034</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>85.85123176253057</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3948,22 +3948,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>135.9059707721073</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>115.5269768002176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>267.7322287946715</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5508886758075</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>609.8092554337209</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>609.8092554337209</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>320.3920853967602</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.324418312743</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.361901372331</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>1743.361901372331</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>1357.573648774087</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F5" t="n">
-        <v>946.5877439844796</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326643</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>177.7748466502712</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>539.164327873261</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>525.2409238118519</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626213</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4995,13 +4995,13 @@
         <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>617.006227188208</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512474</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X10" t="n">
         <v>99.59950625323009</v>
@@ -5029,10 +5029,10 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5123,25 +5123,25 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>485.404702608942</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.2520934878791</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>260.2520934878791</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028583</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>1031.261089087969</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181187</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181187</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365146</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305956</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>268.7602397026888</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1301850426789</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028583</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305956</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305956</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,13 +5542,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365146</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500519</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4609007520346</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2449295548433</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2449295548433</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2449295548433</v>
+        <v>470.1259855045691</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2449295548433</v>
+        <v>322.212891922176</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2449295548433</v>
+        <v>175.3229444242657</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.8933943850831</v>
+        <v>620.2426249169049</v>
       </c>
     </row>
     <row r="23">
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169049</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>330.8254548799443</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>102.8359039819269</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6478,16 +6478,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.8933943850831</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C31" t="n">
-        <v>444.8933943850831</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>444.8933943850831</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>296.98030080269</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.857902456507</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.8933943850831</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>275.872457296028</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9038434870658</v>
+        <v>275.872457296028</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9038434870658</v>
+        <v>275.872457296028</v>
       </c>
       <c r="E37" t="n">
-        <v>216.9038434870658</v>
+        <v>127.9593637136348</v>
       </c>
       <c r="F37" t="n">
-        <v>216.9038434870658</v>
+        <v>127.9593637136348</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8389060137407</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="41">
@@ -7405,52 +7405,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>330.8254548799443</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>330.8254548799443</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>330.8254548799443</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1050.642398679616</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799443</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>330.8254548799443</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>330.8254548799443</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,7 +7745,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1228.47967581581</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1228.47967581581</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670107</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>277.6717966208074</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.717654749846</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714842</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.717654749846</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.13686837721616e-12</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>132.6318690338263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.39636606717167</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.2217189048026</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>6.492880535499324</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>247.3747454551593</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.3298031944072</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.126008749765674</v>
+        <v>89.16877402903756</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>160.9309440669529</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.1490392373288</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>211.5105866216111</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>50.96659166316</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>48.0036839568655</v>
+        <v>136.0587189325621</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>83.70797205545725</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>60.5827308840386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>85.64159028628194</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>51.71984429841025</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>18.50512360390587</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="14">
@@ -26331,10 +26331,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
@@ -26346,13 +26346,13 @@
         <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983654</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
         <v>223607.071822029</v>
@@ -26530,40 +26530,40 @@
         <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-190613.1425738395</v>
+        <v>-189736.0104400901</v>
       </c>
       <c r="F6" t="n">
-        <v>334546.8939030561</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="G6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368057</v>
       </c>
       <c r="H6" t="n">
-        <v>334546.893903056</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="I6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="J6" t="n">
-        <v>158123.6747104633</v>
+        <v>159000.8068442128</v>
       </c>
       <c r="K6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="L6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="M6" t="n">
-        <v>199745.8786692193</v>
+        <v>200623.0108029686</v>
       </c>
       <c r="N6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368059</v>
       </c>
       <c r="O6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="P6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368058</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170868</v>
@@ -26749,10 +26749,10 @@
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>85.98948845797261</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>169.1453427569913</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.919944487539397</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>22.82750184132354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2516768029391</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>206.5828674239349</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>9.269126437645866</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8210826836386</v>
       </c>
       <c r="V10" t="n">
-        <v>171.248863830698</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32004,16 +32004,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946991</v>
@@ -32028,7 +32028,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354892</v>
@@ -32074,25 +32074,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458548</v>
@@ -32101,13 +32101,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,19 +32153,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
@@ -32174,22 +32174,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
@@ -32241,16 +32241,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946991</v>
@@ -32265,7 +32265,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354892</v>
@@ -32311,25 +32311,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458548</v>
@@ -32338,13 +32338,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,19 +32390,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
@@ -32411,22 +32411,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346402</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560242</v>
@@ -35500,10 +35500,10 @@
         <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>560.0354988619155</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058702</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504661</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058702</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504661</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
